--- a/performance_results.xlsx
+++ b/performance_results.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8878598030005378</v>
+        <v>0.9170828789992811</v>
       </c>
       <c r="C2" t="n">
-        <v>4.809824866999406</v>
+        <v>14.82169475199953</v>
       </c>
       <c r="D2" t="n">
-        <v>1.639177308099806</v>
+        <v>2.150963481409908</v>
       </c>
       <c r="E2" t="n">
-        <v>1.094320551127549</v>
+        <v>1.412152804308491</v>
       </c>
       <c r="F2" t="n">
-        <v>1133</v>
+        <v>796</v>
       </c>
       <c r="G2" t="n">
-        <v>2287</v>
+        <v>2009</v>
       </c>
       <c r="H2" t="n">
-        <v>1900.5</v>
+        <v>1567.47</v>
       </c>
       <c r="I2" t="n">
-        <v>354.0576930388606</v>
+        <v>240.9909730674574</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07402642699980788</v>
+        <v>0.1045036200011964</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6160755589999098</v>
+        <v>4.475796689001072</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3008818077998512</v>
+        <v>0.6822629403101746</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1488599236252512</v>
+        <v>0.6640512203580096</v>
       </c>
       <c r="F3" t="n">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="G3" t="n">
-        <v>949</v>
+        <v>1937</v>
       </c>
       <c r="H3" t="n">
-        <v>409.3</v>
+        <v>537.3099999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>210.1252245685891</v>
+        <v>428.975819714818</v>
       </c>
     </row>
     <row r="4">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.537885388999712</v>
+        <v>2.768927377999717</v>
       </c>
       <c r="C4" t="n">
-        <v>2.844380129000456</v>
+        <v>6.361203731001297</v>
       </c>
       <c r="D4" t="n">
-        <v>2.163079999599904</v>
+        <v>3.835060854680032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3935544843458354</v>
+        <v>0.6133797776171792</v>
       </c>
       <c r="F4" t="n">
         <v>5001</v>

--- a/performance_results.xlsx
+++ b/performance_results.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9170828789992811</v>
+        <v>0.9321935049993044</v>
       </c>
       <c r="C2" t="n">
-        <v>14.82169475199953</v>
+        <v>2.649047675000475</v>
       </c>
       <c r="D2" t="n">
-        <v>2.150963481409908</v>
+        <v>1.42053780479946</v>
       </c>
       <c r="E2" t="n">
-        <v>1.412152804308491</v>
+        <v>0.5412357478279021</v>
       </c>
       <c r="F2" t="n">
-        <v>796</v>
+        <v>1263</v>
       </c>
       <c r="G2" t="n">
-        <v>2009</v>
+        <v>1263</v>
       </c>
       <c r="H2" t="n">
-        <v>1567.47</v>
+        <v>1263</v>
       </c>
       <c r="I2" t="n">
-        <v>240.9909730674574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1045036200011964</v>
+        <v>0.1660969059994386</v>
       </c>
       <c r="C3" t="n">
-        <v>4.475796689001072</v>
+        <v>0.428808136999578</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6822629403101746</v>
+        <v>0.2384303965998697</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6640512203580096</v>
+        <v>0.07588258516470504</v>
       </c>
       <c r="F3" t="n">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="G3" t="n">
-        <v>1937</v>
+        <v>225</v>
       </c>
       <c r="H3" t="n">
-        <v>537.3099999999999</v>
+        <v>225</v>
       </c>
       <c r="I3" t="n">
-        <v>428.975819714818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.768927377999717</v>
+        <v>2.309874449001654</v>
       </c>
       <c r="C4" t="n">
-        <v>6.361203731001297</v>
+        <v>3.847777751998365</v>
       </c>
       <c r="D4" t="n">
-        <v>3.835060854680032</v>
+        <v>2.978536176400303</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6133797776171792</v>
+        <v>0.6078034725499198</v>
       </c>
       <c r="F4" t="n">
         <v>5001</v>
